--- a/src/onlyMain/resources/节气数据.xlsx
+++ b/src/onlyMain/resources/节气数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Ecliptic\src\onlyMain\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72DB824-0F97-4AD0-ABE4-C5431E199417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B6EB0-1C42-412B-BF61-4C06EB398F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{9B4BF41A-40D4-4F30-95C5-B63DB59132D5}"/>
   </bookViews>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>干湿概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打雷基础概率为0.001/tick。对于无雨群系为0，几乎无雨群系为1%，少雨群系为10%，适量雨群系为50%，多雨群系为150%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,7 +431,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>降雨基础概率为0.01/tick。对于无雨群系为0，几乎无雨群系为1%，少雨群系为10%，适量雨群系为50%，多雨群系为150%。最后乘群系概率（最少设计概率一半，除非无雨）。</t>
+    <t>打雷基础概率为0.001/tick。对于无雨群系为0，几乎无雨群系为1%，少雨群系为10%，适量雨群系为40%，多雨群系为100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降雨基础概率为0.01/tick。对于无雨群系为0，几乎无雨群系为1%，少雨群系为10%，适量雨群系为40%，多雨群系为100%。最后乘群系概率（最少设计概率一半，除非无雨）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,22 +570,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349BBA73-A7C7-466C-AA4F-FD3A9580A8DC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -929,27 +929,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
         <v>49</v>
       </c>
@@ -962,20 +962,20 @@
       <c r="M1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="11"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="10" t="s">
         <v>56</v>
       </c>
@@ -1003,13 +1003,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1044,9 +1044,9 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1081,9 +1081,9 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1118,9 +1118,9 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1153,9 +1153,9 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1192,9 +1192,9 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1229,13 +1229,13 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1272,9 +1272,9 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1313,9 +1313,9 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1356,9 +1356,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1397,9 +1397,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1446,9 +1446,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1493,13 +1493,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1544,9 +1544,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,9 +1589,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1630,9 +1630,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
@@ -1669,9 +1669,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1716,9 +1716,9 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="8">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="8">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="8">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="8">
@@ -1997,249 +1997,268 @@
       <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="A28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="11"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G39" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G40" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G41" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G42" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G43" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G44" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G45" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G46" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A31:Q31"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H35:I35"/>
@@ -2256,25 +2275,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
